--- a/biology/Botanique/Angraecum_sesquipedale/Angraecum_sesquipedale.xlsx
+++ b/biology/Botanique/Angraecum_sesquipedale/Angraecum_sesquipedale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'étoile de Madagascar (Angraecum sesquipedale) est une espèce de plantes de la famille des Orchidaceae endémique de Madagascar.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante vivace à croissance monopodiale, épiphyte ou plus rarement lithophyte originaire des forêts côtières de la côte Est (canal des Pangalanes).
 C'est une plante à croissance lente d'assez grande taille aux feuilles allongées, pliées à la base, aux extrémités arrondies. Les hampes florales portent de une à trois fleurs et se forment chaque année à l'aisselle des feuilles principales. Au fur et à mesure de la croissance, le niveau d'apparition des nouvelles hampes comme celui de formation des racines aériennes remonte d'un nœud.
@@ -547,7 +561,9 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À Madagascar, elle fleurit en hiver de juin à novembre. En Europe la floraison est inversée et survient de fin décembre à janvier. Les fleurs émettent leur parfum la nuit, caractéristique qui a fait rechercher un pollinisateur parmi les papillons nocturnes.
 </t>
@@ -578,7 +594,9 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On pensait que la pollinisation était assurée par un papillon nocturne de la famille des Sphingidae, Xanthopan morganii praedicta (sous-espèce à la trompe particulièrement longue du sphinx africain Xanthopan morganii).
 La morphologie de la fleur d'Angraecum sesquipedale n'avait pas manqué d'attirer l'attention de Charles Darwin qui écrivait en 1862 :
